--- a/DOM_Banner/output/dept0788/Ann Marie Chiasson_2023.xlsx
+++ b/DOM_Banner/output/dept0788/Ann Marie Chiasson_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Fellowship in Integrative Medicine, Andrew Weil Center for Integrative Medicine, College of Medicine, University of Arizona, 655 N. Alvernon Way Suite 120, Tucson, AZ 85716, United States</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308155351</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Patient centered prognosis (PtCP): A guided visualization to assist patients and families explore prognosis for a terminal diagnosis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-07-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>EXPLORE</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.explore.2022.10.016</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37424271</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.explore.2022.10.016</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
